--- a/noun_synthesis_draft_db 2018.xlsx
+++ b/noun_synthesis_draft_db 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1180" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -772,9 +772,6 @@
     <t>Reflected in definite conjugation of verb.  3rd person Px can be used to indicate definiteness.  Riese 64: a particle can signal semantic definiteness, and 'one' indefiniteness, but these are not articles (not obligatory, not frequent).</t>
   </si>
   <si>
-    <t>ase on the noun?</t>
-  </si>
-  <si>
     <t>Gender coexponence in singular only.  Case also mared on article (often more explicitly than on the noun).</t>
   </si>
   <si>
@@ -802,9 +799,6 @@
     <t>Def. art. a- is phrasal; attaches to prenominal adjective.  Hewitt considers suffixed -k' 'one' an article, but it is also cardinal 'one' so I'm not sure.</t>
   </si>
   <si>
-    <t>Core case is marked only on articles.  Coded here as a noun category.  Non-core cases may or may not be cases; they are on the nouns.</t>
-  </si>
-  <si>
     <t>Cherokee</t>
   </si>
   <si>
@@ -817,16 +811,16 @@
     <t>Person</t>
   </si>
   <si>
-    <t>In complementary distribution with person. Referential prefix.</t>
-  </si>
-  <si>
-    <t>In complementary distribution with gender. Referential prefix.</t>
-  </si>
-  <si>
-    <t>In complementary distribution with person. Possessive prefix.</t>
-  </si>
-  <si>
-    <t>In complementary distribution with gender. Possessive prefix.</t>
+    <t>Core case is marked only on articles.  Coded here as a noun category.  Non-core cases may or may not be cases; they are on the nouns (maybe they are adverb-forming suffixes?)</t>
+  </si>
+  <si>
+    <t>Other: Plural extension</t>
+  </si>
+  <si>
+    <t>Either auto-gender (referential prefix) or possessive.</t>
+  </si>
+  <si>
+    <t>In complementary distribution with gender. Either auto-person (referential) or possessive.</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2136,7 +2130,7 @@
         <v>142</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -4259,8 +4253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4474,7 +4468,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="D23" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4526,7 +4520,7 @@
         <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -4593,7 +4587,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -4608,7 +4602,7 @@
         <v>28</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:9">
@@ -4622,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -4633,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -4668,10 +4662,10 @@
         <v>2</v>
       </c>
       <c r="G42" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" t="s">
         <v>205</v>
-      </c>
-      <c r="I42" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:9">
@@ -4686,7 +4680,7 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -5381,10 +5375,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5435,7 +5429,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -5450,10 +5444,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K4" t="s">
         <v>55</v>
@@ -5492,7 +5486,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="D7" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -5512,47 +5506,23 @@
     </row>
     <row r="8" spans="1:12">
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="D9" s="17" t="s">
-        <v>211</v>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5560,36 +5530,20 @@
     </row>
     <row r="11" spans="1:12">
       <c r="D11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="D14" t="s">
         <v>22</v>
       </c>
     </row>
